--- a/Employee_Reports35/Bonifacio Arano Bayer Q0557.xlsx
+++ b/Employee_Reports35/Bonifacio Arano Bayer Q0557.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1126,53 +1126,103 @@
       <c r="K14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Equipment Operation Procedure
+(SOP-031) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-031</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>21-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>21-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>321</v>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>LSME-CRG-SOP-028</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>10-Oct-2023</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>09-Oct-2024</t>
         </is>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>-390</v>
-      </c>
-      <c r="I15" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="H16" s="4" t="n">
+        <v>-391</v>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="K15" s="4" t="inlineStr"/>
+      <c r="K16" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Bonifacio Arano Bayer Q0557.xlsx
+++ b/Employee_Reports35/Bonifacio Arano Bayer Q0557.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1210,11 +1210,11 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>-391</v>
+        <v>-392</v>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
